--- a/uploads/excel/RKAP Template.xlsx
+++ b/uploads/excel/RKAP Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097280E0-DD9E-4618-97C5-8F2FC2395BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C219BDA3-B4AF-4A58-AE1A-463357A2693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1994,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/uploads/excel/RKAP Template.xlsx
+++ b/uploads/excel/RKAP Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C219BDA3-B4AF-4A58-AE1A-463357A2693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B0C4E-90E3-4A93-A0C8-FB453CD47AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2700" windowWidth="16485" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="td2023" sheetId="1" r:id="rId1"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -1718,12 +1718,6 @@
   <si>
     <t>Des</t>
   </si>
-  <si>
-    <t>ZGMFTA</t>
-  </si>
-  <si>
-    <t>ZGMFTX</t>
-  </si>
 </sst>
 </file>
 
@@ -1740,6 +1734,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1763,12 +1758,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1994,8 +1992,8 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="292" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2051,1883 +2049,774 @@
       <c r="A2" s="2">
         <v>2023</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2">
-        <v>40011110</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100</v>
-      </c>
-      <c r="G2" s="3">
-        <v>100</v>
-      </c>
-      <c r="H2" s="3">
-        <v>100</v>
-      </c>
-      <c r="I2" s="3">
-        <v>100</v>
-      </c>
-      <c r="J2" s="3">
-        <v>100</v>
-      </c>
-      <c r="K2" s="3">
-        <v>100</v>
-      </c>
-      <c r="L2" s="3">
-        <v>100</v>
-      </c>
-      <c r="M2" s="3">
-        <v>100</v>
-      </c>
-      <c r="N2" s="3">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3">
-        <v>100</v>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>100.01</v>
+      </c>
+      <c r="E2" s="4">
+        <v>100.02</v>
+      </c>
+      <c r="F2" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="G2" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="H2" s="4">
+        <v>100.05</v>
+      </c>
+      <c r="I2" s="4">
+        <v>100.06</v>
+      </c>
+      <c r="J2" s="4">
+        <v>100.07</v>
+      </c>
+      <c r="K2" s="4">
+        <v>100.08</v>
+      </c>
+      <c r="L2" s="4">
+        <v>100.09</v>
+      </c>
+      <c r="M2" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>100.11</v>
+      </c>
+      <c r="O2" s="4">
+        <v>100.12</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2023</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40011120</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="E3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="G3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="H3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="I3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="J3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="K3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="L3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="M3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="N3" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="O3" s="3">
-        <v>12508.04</v>
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100.01</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100.02</v>
+      </c>
+      <c r="F3" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="H3" s="4">
+        <v>100.05</v>
+      </c>
+      <c r="I3" s="4">
+        <v>100.06</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100.07</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100.08</v>
+      </c>
+      <c r="L3" s="4">
+        <v>100.09</v>
+      </c>
+      <c r="M3" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>100.11</v>
+      </c>
+      <c r="O3" s="4">
+        <v>100.12</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>2022</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>40011130</v>
-      </c>
-      <c r="D4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="N4" s="3">
-        <v>12000</v>
-      </c>
-      <c r="O4" s="3">
-        <v>12000</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100.01</v>
+      </c>
+      <c r="E4" s="4">
+        <v>100.02</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="H4" s="4">
+        <v>100.05</v>
+      </c>
+      <c r="I4" s="4">
+        <v>100.06</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100.07</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100.08</v>
+      </c>
+      <c r="L4" s="4">
+        <v>100.09</v>
+      </c>
+      <c r="M4" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>100.11</v>
+      </c>
+      <c r="O4" s="4">
+        <v>100.12</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>40013001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1250.75</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>40013002</v>
-      </c>
-      <c r="D6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="G6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="L6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="M6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="N6" s="3">
-        <v>35000</v>
-      </c>
-      <c r="O6" s="3">
-        <v>35000</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>40013003</v>
-      </c>
-      <c r="D7" s="3">
-        <v>250</v>
-      </c>
-      <c r="E7" s="3">
-        <v>250</v>
-      </c>
-      <c r="F7" s="3">
-        <v>250</v>
-      </c>
-      <c r="G7" s="3">
-        <v>250</v>
-      </c>
-      <c r="H7" s="3">
-        <v>250</v>
-      </c>
-      <c r="I7" s="3">
-        <v>250</v>
-      </c>
-      <c r="J7" s="3">
-        <v>250</v>
-      </c>
-      <c r="K7" s="3">
-        <v>250</v>
-      </c>
-      <c r="L7" s="3">
-        <v>250</v>
-      </c>
-      <c r="M7" s="3">
-        <v>250</v>
-      </c>
-      <c r="N7" s="3">
-        <v>250</v>
-      </c>
-      <c r="O7" s="3">
-        <v>250</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>40013010</v>
-      </c>
-      <c r="D8" s="3">
-        <v>400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <v>40013015</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="F9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="L9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="M9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="N9" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="O9" s="3">
-        <v>7.25</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>40013016</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="F10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="I10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="K10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="L10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="M10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="N10" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="O10" s="3">
-        <v>10.31</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>40013017</v>
-      </c>
-      <c r="D11" s="3">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3">
-        <v>12</v>
-      </c>
-      <c r="I11" s="3">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3">
-        <v>12</v>
-      </c>
-      <c r="K11" s="3">
-        <v>12</v>
-      </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-      <c r="M11" s="3">
-        <v>12</v>
-      </c>
-      <c r="N11" s="3">
-        <v>12</v>
-      </c>
-      <c r="O11" s="3">
-        <v>12</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>40013018</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="G12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="H12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="I12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="J12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="K12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="L12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="M12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="N12" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="O12" s="3">
-        <v>12.64</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>40013019</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45030</v>
-      </c>
-      <c r="E13" s="3">
-        <v>45031</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45032</v>
-      </c>
-      <c r="G13" s="3">
-        <v>45033</v>
-      </c>
-      <c r="H13" s="3">
-        <v>45034</v>
-      </c>
-      <c r="I13" s="3">
-        <v>45035</v>
-      </c>
-      <c r="J13" s="3">
-        <v>45036</v>
-      </c>
-      <c r="K13" s="3">
-        <v>45037</v>
-      </c>
-      <c r="L13" s="3">
-        <v>45038</v>
-      </c>
-      <c r="M13" s="3">
-        <v>45039</v>
-      </c>
-      <c r="N13" s="3">
-        <v>45040</v>
-      </c>
-      <c r="O13" s="3">
-        <v>45041</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <v>40020010</v>
-      </c>
-      <c r="D14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="E14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="F14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="G14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="H14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="I14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="J14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="K14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="L14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="M14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="N14" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="O14" s="3">
-        <v>14.96</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2">
-        <v>40020011</v>
-      </c>
-      <c r="D15" s="3">
-        <v>65</v>
-      </c>
-      <c r="E15" s="3">
-        <v>65</v>
-      </c>
-      <c r="F15" s="3">
-        <v>65</v>
-      </c>
-      <c r="G15" s="3">
-        <v>65</v>
-      </c>
-      <c r="H15" s="3">
-        <v>65</v>
-      </c>
-      <c r="I15" s="3">
-        <v>65</v>
-      </c>
-      <c r="J15" s="3">
-        <v>65</v>
-      </c>
-      <c r="K15" s="3">
-        <v>65</v>
-      </c>
-      <c r="L15" s="3">
-        <v>65</v>
-      </c>
-      <c r="M15" s="3">
-        <v>65</v>
-      </c>
-      <c r="N15" s="3">
-        <v>65</v>
-      </c>
-      <c r="O15" s="3">
-        <v>65</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2">
-        <v>40043000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="E16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="F16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="G16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="H16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="I16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="J16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="K16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="L16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="M16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="N16" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="O16" s="3">
-        <v>76.739999999999995</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2">
-        <v>40043001</v>
-      </c>
-      <c r="D17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="E17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="F17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="G17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="H17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="I17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="J17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="K17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="L17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="M17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="N17" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="O17" s="3">
-        <v>96.46</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2">
-        <v>40043002</v>
-      </c>
-      <c r="D18" s="3">
-        <v>160</v>
-      </c>
-      <c r="E18" s="3">
-        <v>160</v>
-      </c>
-      <c r="F18" s="3">
-        <v>160</v>
-      </c>
-      <c r="G18" s="3">
-        <v>160</v>
-      </c>
-      <c r="H18" s="3">
-        <v>160</v>
-      </c>
-      <c r="I18" s="3">
-        <v>160</v>
-      </c>
-      <c r="J18" s="3">
-        <v>160</v>
-      </c>
-      <c r="K18" s="3">
-        <v>160</v>
-      </c>
-      <c r="L18" s="3">
-        <v>160</v>
-      </c>
-      <c r="M18" s="3">
-        <v>160</v>
-      </c>
-      <c r="N18" s="3">
-        <v>160</v>
-      </c>
-      <c r="O18" s="3">
-        <v>160</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>40043006</v>
-      </c>
-      <c r="D19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="E19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="F19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="G19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="H19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="I19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="J19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="K19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="L19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="M19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="N19" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="O19" s="3">
-        <v>258.38</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="2">
-        <v>40043007</v>
-      </c>
-      <c r="D20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="E20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="F20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="G20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="H20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="I20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="J20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="K20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="L20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="M20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="N20" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="O20" s="3">
-        <v>120.9</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2">
-        <v>40044011</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1800</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <v>40011110</v>
-      </c>
-      <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <v>40011120</v>
-      </c>
-      <c r="D23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="E23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="F23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="G23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="H23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="I23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="J23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="K23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="L23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="M23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="N23" s="3">
-        <v>12508.04</v>
-      </c>
-      <c r="O23" s="3">
-        <v>12508.04</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
-        <v>40011130</v>
-      </c>
-      <c r="D24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>12000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>12000</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>40013001</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1250.75</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1250.75</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>40013002</v>
-      </c>
-      <c r="D26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>35000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>35000</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="2">
-        <v>40013003</v>
-      </c>
-      <c r="D27" s="3">
-        <v>250</v>
-      </c>
-      <c r="E27" s="3">
-        <v>250</v>
-      </c>
-      <c r="F27" s="3">
-        <v>250</v>
-      </c>
-      <c r="G27" s="3">
-        <v>250</v>
-      </c>
-      <c r="H27" s="3">
-        <v>250</v>
-      </c>
-      <c r="I27" s="3">
-        <v>250</v>
-      </c>
-      <c r="J27" s="3">
-        <v>250</v>
-      </c>
-      <c r="K27" s="3">
-        <v>250</v>
-      </c>
-      <c r="L27" s="3">
-        <v>250</v>
-      </c>
-      <c r="M27" s="3">
-        <v>250</v>
-      </c>
-      <c r="N27" s="3">
-        <v>250</v>
-      </c>
-      <c r="O27" s="3">
-        <v>250</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2">
-        <v>40013010</v>
-      </c>
-      <c r="D28" s="3">
-        <v>400</v>
-      </c>
-      <c r="E28" s="3">
-        <v>400</v>
-      </c>
-      <c r="F28" s="3">
-        <v>400</v>
-      </c>
-      <c r="G28" s="3">
-        <v>400</v>
-      </c>
-      <c r="H28" s="3">
-        <v>400</v>
-      </c>
-      <c r="I28" s="3">
-        <v>400</v>
-      </c>
-      <c r="J28" s="3">
-        <v>400</v>
-      </c>
-      <c r="K28" s="3">
-        <v>400</v>
-      </c>
-      <c r="L28" s="3">
-        <v>400</v>
-      </c>
-      <c r="M28" s="3">
-        <v>400</v>
-      </c>
-      <c r="N28" s="3">
-        <v>400</v>
-      </c>
-      <c r="O28" s="3">
-        <v>400</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2">
-        <v>40013015</v>
-      </c>
-      <c r="D29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="E29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="F29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="G29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="H29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="I29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="J29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="K29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="L29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="M29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="N29" s="3">
-        <v>7.25</v>
-      </c>
-      <c r="O29" s="3">
-        <v>7.25</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>40013016</v>
-      </c>
-      <c r="D30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="E30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="F30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="G30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="H30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="I30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="J30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="K30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="L30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="M30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="N30" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="O30" s="3">
-        <v>10.31</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2">
-        <v>40013017</v>
-      </c>
-      <c r="D31" s="3">
-        <v>12</v>
-      </c>
-      <c r="E31" s="3">
-        <v>12</v>
-      </c>
-      <c r="F31" s="3">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3">
-        <v>12</v>
-      </c>
-      <c r="H31" s="3">
-        <v>12</v>
-      </c>
-      <c r="I31" s="3">
-        <v>12</v>
-      </c>
-      <c r="J31" s="3">
-        <v>12</v>
-      </c>
-      <c r="K31" s="3">
-        <v>12</v>
-      </c>
-      <c r="L31" s="3">
-        <v>12</v>
-      </c>
-      <c r="M31" s="3">
-        <v>12</v>
-      </c>
-      <c r="N31" s="3">
-        <v>12</v>
-      </c>
-      <c r="O31" s="3">
-        <v>12</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>40013018</v>
-      </c>
-      <c r="D32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="E32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="F32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="G32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="H32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="I32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="J32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="K32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="L32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="N32" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="O32" s="3">
-        <v>12.64</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="2">
-        <v>40013019</v>
-      </c>
-      <c r="D33" s="3">
-        <v>45030</v>
-      </c>
-      <c r="E33" s="3">
-        <v>45031</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45032</v>
-      </c>
-      <c r="G33" s="3">
-        <v>45033</v>
-      </c>
-      <c r="H33" s="3">
-        <v>45034</v>
-      </c>
-      <c r="I33" s="3">
-        <v>45035</v>
-      </c>
-      <c r="J33" s="3">
-        <v>45036</v>
-      </c>
-      <c r="K33" s="3">
-        <v>45037</v>
-      </c>
-      <c r="L33" s="3">
-        <v>45038</v>
-      </c>
-      <c r="M33" s="3">
-        <v>45039</v>
-      </c>
-      <c r="N33" s="3">
-        <v>45040</v>
-      </c>
-      <c r="O33" s="3">
-        <v>45041</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2">
-        <v>40020010</v>
-      </c>
-      <c r="D34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="E34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="F34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="G34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="H34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="I34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="J34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="K34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="L34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="M34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="N34" s="3">
-        <v>14.96</v>
-      </c>
-      <c r="O34" s="3">
-        <v>14.96</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2">
-        <v>40020011</v>
-      </c>
-      <c r="D35" s="3">
-        <v>65</v>
-      </c>
-      <c r="E35" s="3">
-        <v>65</v>
-      </c>
-      <c r="F35" s="3">
-        <v>65</v>
-      </c>
-      <c r="G35" s="3">
-        <v>65</v>
-      </c>
-      <c r="H35" s="3">
-        <v>65</v>
-      </c>
-      <c r="I35" s="3">
-        <v>65</v>
-      </c>
-      <c r="J35" s="3">
-        <v>65</v>
-      </c>
-      <c r="K35" s="3">
-        <v>65</v>
-      </c>
-      <c r="L35" s="3">
-        <v>65</v>
-      </c>
-      <c r="M35" s="3">
-        <v>65</v>
-      </c>
-      <c r="N35" s="3">
-        <v>65</v>
-      </c>
-      <c r="O35" s="3">
-        <v>65</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2">
-        <v>40043000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="E36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="F36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="G36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="H36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="I36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="J36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="K36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="L36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="M36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="N36" s="3">
-        <v>76.739999999999995</v>
-      </c>
-      <c r="O36" s="3">
-        <v>76.739999999999995</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2">
-        <v>40043001</v>
-      </c>
-      <c r="D37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="E37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="F37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="G37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="H37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="I37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="J37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="K37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="L37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="M37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="N37" s="3">
-        <v>96.46</v>
-      </c>
-      <c r="O37" s="3">
-        <v>96.46</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="2">
-        <v>40043002</v>
-      </c>
-      <c r="D38" s="3">
-        <v>160</v>
-      </c>
-      <c r="E38" s="3">
-        <v>160</v>
-      </c>
-      <c r="F38" s="3">
-        <v>160</v>
-      </c>
-      <c r="G38" s="3">
-        <v>160</v>
-      </c>
-      <c r="H38" s="3">
-        <v>160</v>
-      </c>
-      <c r="I38" s="3">
-        <v>160</v>
-      </c>
-      <c r="J38" s="3">
-        <v>160</v>
-      </c>
-      <c r="K38" s="3">
-        <v>160</v>
-      </c>
-      <c r="L38" s="3">
-        <v>160</v>
-      </c>
-      <c r="M38" s="3">
-        <v>160</v>
-      </c>
-      <c r="N38" s="3">
-        <v>160</v>
-      </c>
-      <c r="O38" s="3">
-        <v>160</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>40043006</v>
-      </c>
-      <c r="D39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="E39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="F39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="G39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="H39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="I39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="J39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="K39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="L39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="M39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="N39" s="3">
-        <v>258.38</v>
-      </c>
-      <c r="O39" s="3">
-        <v>258.38</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="2">
-        <v>40043007</v>
-      </c>
-      <c r="D40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="E40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="F40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="G40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="H40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="I40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="J40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="K40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="L40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="M40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="N40" s="3">
-        <v>120.9</v>
-      </c>
-      <c r="O40" s="3">
-        <v>120.9</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>40044011</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1800</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/excel/RKAP Template.xlsx
+++ b/uploads/excel/RKAP Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B0C4E-90E3-4A93-A0C8-FB453CD47AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B9A81D-224B-4334-B8C5-872F1A1E3F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2700" windowWidth="16485" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1993,7 +1993,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="292" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2187,21 +2187,51 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="A5" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100.01</v>
+      </c>
+      <c r="E5" s="4">
+        <v>100.02</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100.03</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100.04</v>
+      </c>
+      <c r="H5" s="4">
+        <v>100.05</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100.06</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100.07</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100.08</v>
+      </c>
+      <c r="L5" s="4">
+        <v>100.09</v>
+      </c>
+      <c r="M5" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>100.11</v>
+      </c>
+      <c r="O5" s="4">
+        <v>100.12</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
